--- a/project/Assignments/MRU_DS_Java_FSD_Assignment_3.xlsx
+++ b/project/Assignments/MRU_DS_Java_FSD_Assignment_3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="751">
   <si>
     <t>2211cs030170@mallareddyuniversity.ac.in</t>
   </si>
@@ -2116,6 +2116,162 @@
   </si>
   <si>
     <t xml:space="preserve">The system will include a multi-step registration process, a login page, a user dashboard, and a profile page. The focus is on user authentication, form handling, and state management in React.  </t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434yfgrfd/4393kcav6.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434yfhpk7/4395ezusb.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434yfjuzb/43936xtd7.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434yfkbjn/438yh3cxs.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434yfkjuh/4392jg2vj.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434yfmr9n/4396hmkmp.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434yfnf5r/439623hvz.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434yfnpez/43955vjcz.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434yfpdhh/438y897ry.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434yfqbex/4395f38ve.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434yfswha/43962fqa5.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434yftda4/438y7zhx5.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434yftmec/4395yz8q9.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434yfubcm/4396be8sb.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434yfv242/43957k85b.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434yfv9d7/4396h87an.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434yfzqtu/4395cwyn2.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434yg2ewz/4395qv7qm.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434yg35mm/4395dbjt5.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434yg3cuc/4395b422g.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434yg4ax6/4395dtve9.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434yg4zs5/4395dvp7p.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434yg593d/4395ek2ag.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434yg5xwh/43964383j.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434yg6783/4393rxvk3.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434yg6ehr/4395r8rg4.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434yg7cm6/4393qxtpy.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434yg7u6s/4393j4sbf.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434yg83fw/4393rwe89.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434yg8ate/4393rxbs7.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434yg8j2y/4393mr7mp.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434yg9qhq/4393hqzpc.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434yg9xru/4393htur9.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434ygaeba/4393fw2bt.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434ygb5d7/4393nnf7m.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434ygchv6/4393jvkkk.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434ygczex/4396kfzd8.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434ygd8z3/4393n3f9j.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434ygdg95/4392gs66d.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434yge6v2/43928upe9.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434ygf4zs/4392c4p7s.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434yggadv/4393t29g2.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434ygh8ja/43937ksmu.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434yghfu5/4393penqa.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434ygjdym/43928mnm3.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434ygnx8v/4393kzthq.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434ygpvns/4392fskv2.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434ygqk8g/4393pe98p.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434ygqtj7/4393eanpg.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434ygra45/4392r38tc.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434ygrhcp/43938wsnm.zip</t>
+  </si>
+  <si>
+    <t>https://studio.datashortener.com/workspaces/434ygrrw5/4393b5zkf.zip</t>
   </si>
 </sst>
 </file>
@@ -2264,7 +2420,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2456,6 +2612,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -2626,7 +2788,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2655,6 +2817,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2701,7 +2866,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="31">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2764,31 +2929,39 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2807,6 +2980,84 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2936,6 +3187,34 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3016,21 +3295,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1" displayName="Table1" ref="A9:I186" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1" displayName="Table1" ref="A9:I186" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A9:I186"/>
   <sortState ref="A10:I186">
-    <sortCondition ref="D9:D186"/>
+    <sortCondition ref="A9:A186"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="S.NO" dataDxfId="6"/>
-    <tableColumn id="2" name="NAME" dataDxfId="7"/>
-    <tableColumn id="3" name="EMAIL" dataDxfId="16"/>
-    <tableColumn id="4" name="ROLL NO" dataDxfId="15"/>
-    <tableColumn id="5" name="DEPARTMENT" dataDxfId="14"/>
-    <tableColumn id="6" name="BATCH" dataDxfId="13"/>
-    <tableColumn id="7" name="NIMBUS URL" dataDxfId="12"/>
-    <tableColumn id="8" name="GITHUB URL" dataDxfId="11"/>
-    <tableColumn id="9" name="DEMO URL" dataDxfId="10"/>
+    <tableColumn id="1" name="S.NO" dataDxfId="28"/>
+    <tableColumn id="2" name="NAME" dataDxfId="27"/>
+    <tableColumn id="3" name="EMAIL" dataDxfId="26"/>
+    <tableColumn id="4" name="ROLL NO" dataDxfId="25"/>
+    <tableColumn id="5" name="DEPARTMENT" dataDxfId="24"/>
+    <tableColumn id="6" name="BATCH" dataDxfId="23"/>
+    <tableColumn id="7" name="NIMBUS URL" dataDxfId="22"/>
+    <tableColumn id="8" name="GITHUB URL" dataDxfId="21"/>
+    <tableColumn id="9" name="DEMO URL" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3299,10 +3578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I246"/>
+  <dimension ref="A1:I192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3485,8 +3764,8 @@
       <c r="F11" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>469</v>
+      <c r="G11" s="9" t="s">
+        <v>699</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>279</v>
@@ -3601,8 +3880,8 @@
       <c r="F15" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>469</v>
+      <c r="G15" s="13" t="s">
+        <v>700</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>30</v>
@@ -3746,8 +4025,8 @@
       <c r="F20" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="G20" s="12" t="s">
-        <v>469</v>
+      <c r="G20" s="9" t="s">
+        <v>701</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>339</v>
@@ -3804,8 +4083,8 @@
       <c r="F22" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="G22" s="12" t="s">
-        <v>469</v>
+      <c r="G22" s="13" t="s">
+        <v>702</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>469</v>
@@ -3833,8 +4112,8 @@
       <c r="F23" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="G23" s="12" t="s">
-        <v>469</v>
+      <c r="G23" s="9" t="s">
+        <v>703</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>179</v>
@@ -3978,8 +4257,8 @@
       <c r="F28" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="G28" s="12" t="s">
-        <v>469</v>
+      <c r="G28" s="13" t="s">
+        <v>704</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>79</v>
@@ -4065,8 +4344,8 @@
       <c r="F31" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="G31" s="12" t="s">
-        <v>469</v>
+      <c r="G31" s="9" t="s">
+        <v>705</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>279</v>
@@ -4094,8 +4373,8 @@
       <c r="F32" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="G32" s="12" t="s">
-        <v>469</v>
+      <c r="G32" s="13" t="s">
+        <v>706</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>65</v>
@@ -4181,8 +4460,8 @@
       <c r="F35" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="G35" s="12" t="s">
-        <v>469</v>
+      <c r="G35" s="9" t="s">
+        <v>707</v>
       </c>
       <c r="H35" s="12" t="s">
         <v>469</v>
@@ -4297,8 +4576,8 @@
       <c r="F39" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="G39" s="12" t="s">
-        <v>469</v>
+      <c r="G39" s="13" t="s">
+        <v>708</v>
       </c>
       <c r="H39" s="12" t="s">
         <v>241</v>
@@ -4616,8 +4895,8 @@
       <c r="F50" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="G50" s="12" t="s">
-        <v>469</v>
+      <c r="G50" s="9" t="s">
+        <v>709</v>
       </c>
       <c r="H50" s="12" t="s">
         <v>123</v>
@@ -4674,8 +4953,8 @@
       <c r="F52" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="G52" s="12" t="s">
-        <v>469</v>
+      <c r="G52" s="13" t="s">
+        <v>710</v>
       </c>
       <c r="H52" s="12" t="s">
         <v>469</v>
@@ -4703,8 +4982,8 @@
       <c r="F53" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="G53" s="12" t="s">
-        <v>469</v>
+      <c r="G53" s="9" t="s">
+        <v>711</v>
       </c>
       <c r="H53" s="12" t="s">
         <v>123</v>
@@ -4790,8 +5069,8 @@
       <c r="F56" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="G56" s="12" t="s">
-        <v>469</v>
+      <c r="G56" s="13" t="s">
+        <v>712</v>
       </c>
       <c r="H56" s="12" t="s">
         <v>79</v>
@@ -4877,8 +5156,8 @@
       <c r="F59" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="G59" s="12" t="s">
-        <v>469</v>
+      <c r="G59" s="9" t="s">
+        <v>713</v>
       </c>
       <c r="H59" s="12" t="s">
         <v>41</v>
@@ -4906,8 +5185,8 @@
       <c r="F60" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="G60" s="12" t="s">
-        <v>469</v>
+      <c r="G60" s="13" t="s">
+        <v>714</v>
       </c>
       <c r="H60" s="12" t="s">
         <v>79</v>
@@ -5457,8 +5736,8 @@
       <c r="F79" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="G79" s="12" t="s">
-        <v>469</v>
+      <c r="G79" s="9" t="s">
+        <v>715</v>
       </c>
       <c r="H79" s="12" t="s">
         <v>361</v>
@@ -5544,8 +5823,8 @@
       <c r="F82" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="G82" s="12" t="s">
-        <v>469</v>
+      <c r="G82" s="13" t="s">
+        <v>716</v>
       </c>
       <c r="H82" s="12" t="s">
         <v>30</v>
@@ -5631,8 +5910,8 @@
       <c r="F85" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="G85" s="12" t="s">
-        <v>469</v>
+      <c r="G85" s="9" t="s">
+        <v>717</v>
       </c>
       <c r="H85" s="12" t="s">
         <v>279</v>
@@ -5660,8 +5939,8 @@
       <c r="F86" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="G86" s="12" t="s">
-        <v>469</v>
+      <c r="G86" s="13" t="s">
+        <v>718</v>
       </c>
       <c r="H86" s="12" t="s">
         <v>65</v>
@@ -5776,8 +6055,8 @@
       <c r="F90" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="G90" s="12" t="s">
-        <v>469</v>
+      <c r="G90" s="9" t="s">
+        <v>719</v>
       </c>
       <c r="H90" s="12" t="s">
         <v>339</v>
@@ -5863,8 +6142,8 @@
       <c r="F93" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="G93" s="12" t="s">
-        <v>469</v>
+      <c r="G93" s="13" t="s">
+        <v>720</v>
       </c>
       <c r="H93" s="12" t="s">
         <v>241</v>
@@ -5892,8 +6171,8 @@
       <c r="F94" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="G94" s="12" t="s">
-        <v>469</v>
+      <c r="G94" s="9" t="s">
+        <v>721</v>
       </c>
       <c r="H94" s="12" t="s">
         <v>241</v>
@@ -5979,8 +6258,8 @@
       <c r="F97" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="G97" s="12" t="s">
-        <v>469</v>
+      <c r="G97" s="13" t="s">
+        <v>722</v>
       </c>
       <c r="H97" s="12" t="s">
         <v>310</v>
@@ -6009,7 +6288,7 @@
         <v>570</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>469</v>
+        <v>723</v>
       </c>
       <c r="H98" s="9" t="s">
         <v>469</v>
@@ -6037,8 +6316,8 @@
       <c r="F99" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="G99" s="9" t="s">
-        <v>469</v>
+      <c r="G99" s="13" t="s">
+        <v>724</v>
       </c>
       <c r="H99" s="9" t="s">
         <v>469</v>
@@ -6154,7 +6433,7 @@
         <v>570</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>469</v>
+        <v>725</v>
       </c>
       <c r="H103" s="9" t="s">
         <v>469</v>
@@ -6211,8 +6490,8 @@
       <c r="F105" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="G105" s="12" t="s">
-        <v>469</v>
+      <c r="G105" s="13" t="s">
+        <v>726</v>
       </c>
       <c r="H105" s="12" t="s">
         <v>261</v>
@@ -6241,7 +6520,7 @@
         <v>570</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>469</v>
+        <v>727</v>
       </c>
       <c r="H106" s="9" t="s">
         <v>469</v>
@@ -6269,8 +6548,8 @@
       <c r="F107" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="G107" s="9" t="s">
-        <v>469</v>
+      <c r="G107" s="13" t="s">
+        <v>728</v>
       </c>
       <c r="H107" s="9" t="s">
         <v>469</v>
@@ -6298,8 +6577,8 @@
       <c r="F108" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="G108" s="12" t="s">
-        <v>469</v>
+      <c r="G108" s="9" t="s">
+        <v>729</v>
       </c>
       <c r="H108" s="12" t="s">
         <v>68</v>
@@ -6443,8 +6722,8 @@
       <c r="F113" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="G113" s="9" t="s">
-        <v>469</v>
+      <c r="G113" s="13" t="s">
+        <v>730</v>
       </c>
       <c r="H113" s="9" t="s">
         <v>469</v>
@@ -6472,8 +6751,8 @@
       <c r="F114" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="G114" s="12" t="s">
-        <v>469</v>
+      <c r="G114" s="9" t="s">
+        <v>731</v>
       </c>
       <c r="H114" s="12" t="s">
         <v>255</v>
@@ -6530,8 +6809,8 @@
       <c r="F116" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="G116" s="12" t="s">
-        <v>469</v>
+      <c r="G116" s="13" t="s">
+        <v>732</v>
       </c>
       <c r="H116" s="12" t="s">
         <v>190</v>
@@ -6618,7 +6897,7 @@
         <v>570</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>469</v>
+        <v>733</v>
       </c>
       <c r="H119" s="9" t="s">
         <v>469</v>
@@ -6791,8 +7070,8 @@
       <c r="F125" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="G125" s="12" t="s">
-        <v>469</v>
+      <c r="G125" s="13" t="s">
+        <v>734</v>
       </c>
       <c r="H125" s="12" t="s">
         <v>149</v>
@@ -6850,7 +7129,7 @@
         <v>570</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>469</v>
+        <v>735</v>
       </c>
       <c r="H127" s="9" t="s">
         <v>469</v>
@@ -6878,8 +7157,8 @@
       <c r="F128" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="G128" s="9" t="s">
-        <v>469</v>
+      <c r="G128" s="13" t="s">
+        <v>736</v>
       </c>
       <c r="H128" s="9" t="s">
         <v>469</v>
@@ -6908,7 +7187,7 @@
         <v>570</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>469</v>
+        <v>737</v>
       </c>
       <c r="H129" s="9" t="s">
         <v>469</v>
@@ -6994,8 +7273,8 @@
       <c r="F132" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="G132" s="12" t="s">
-        <v>469</v>
+      <c r="G132" s="13" t="s">
+        <v>738</v>
       </c>
       <c r="H132" s="12" t="s">
         <v>333</v>
@@ -7111,7 +7390,7 @@
         <v>570</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>469</v>
+        <v>739</v>
       </c>
       <c r="H136" s="9" t="s">
         <v>469</v>
@@ -7255,8 +7534,8 @@
       <c r="F141" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="G141" s="12" t="s">
-        <v>469</v>
+      <c r="G141" s="13" t="s">
+        <v>740</v>
       </c>
       <c r="H141" s="12" t="s">
         <v>164</v>
@@ -7372,7 +7651,7 @@
         <v>570</v>
       </c>
       <c r="G145" s="9" t="s">
-        <v>469</v>
+        <v>741</v>
       </c>
       <c r="H145" s="9" t="s">
         <v>469</v>
@@ -7400,8 +7679,8 @@
       <c r="F146" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="G146" s="12" t="s">
-        <v>469</v>
+      <c r="G146" s="13" t="s">
+        <v>742</v>
       </c>
       <c r="H146" s="12" t="s">
         <v>164</v>
@@ -7516,8 +7795,8 @@
       <c r="F150" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="G150" s="12" t="s">
-        <v>469</v>
+      <c r="G150" s="9" t="s">
+        <v>743</v>
       </c>
       <c r="H150" s="12" t="s">
         <v>329</v>
@@ -7951,8 +8230,8 @@
       <c r="F165" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="G165" s="9" t="s">
-        <v>469</v>
+      <c r="G165" s="13" t="s">
+        <v>744</v>
       </c>
       <c r="H165" s="9" t="s">
         <v>469</v>
@@ -8067,8 +8346,8 @@
       <c r="F169" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="G169" s="12" t="s">
-        <v>469</v>
+      <c r="G169" s="9" t="s">
+        <v>745</v>
       </c>
       <c r="H169" s="12" t="s">
         <v>261</v>
@@ -8154,8 +8433,8 @@
       <c r="F172" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="G172" s="9" t="s">
-        <v>469</v>
+      <c r="G172" s="13" t="s">
+        <v>746</v>
       </c>
       <c r="H172" s="9" t="s">
         <v>469</v>
@@ -8183,8 +8462,8 @@
       <c r="F173" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="G173" s="12" t="s">
-        <v>469</v>
+      <c r="G173" s="9" t="s">
+        <v>747</v>
       </c>
       <c r="H173" s="12" t="s">
         <v>47</v>
@@ -8241,8 +8520,8 @@
       <c r="F175" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="G175" s="12" t="s">
-        <v>469</v>
+      <c r="G175" s="13" t="s">
+        <v>748</v>
       </c>
       <c r="H175" s="12" t="s">
         <v>231</v>
@@ -8270,8 +8549,8 @@
       <c r="F176" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="G176" s="12" t="s">
-        <v>469</v>
+      <c r="G176" s="9" t="s">
+        <v>749</v>
       </c>
       <c r="H176" s="12" t="s">
         <v>2</v>
@@ -8299,8 +8578,8 @@
       <c r="F177" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="G177" s="9" t="s">
-        <v>469</v>
+      <c r="G177" s="13" t="s">
+        <v>750</v>
       </c>
       <c r="H177" s="9" t="s">
         <v>469</v>
@@ -8570,81 +8849,50 @@
         <v>69</v>
       </c>
     </row>
-    <row r="230" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D230" s="10"/>
-    </row>
-    <row r="231" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D231" s="10"/>
-    </row>
-    <row r="232" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D232" s="10"/>
-    </row>
-    <row r="233" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D233" s="10"/>
-    </row>
-    <row r="234" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D234" s="10"/>
-    </row>
-    <row r="235" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D235" s="10"/>
-    </row>
-    <row r="236" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D236" s="10"/>
-    </row>
-    <row r="237" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D237" s="10"/>
-    </row>
-    <row r="238" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D238" s="10"/>
-    </row>
-    <row r="239" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D239" s="10"/>
-    </row>
-    <row r="240" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D240" s="10"/>
-    </row>
-    <row r="241" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D241" s="10"/>
-    </row>
-    <row r="242" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D242" s="10"/>
-    </row>
-    <row r="243" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D243" s="10"/>
-    </row>
-    <row r="244" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D244" s="10"/>
-    </row>
-    <row r="245" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D245" s="10"/>
-    </row>
-    <row r="246" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D246" s="11"/>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D189" s="10"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D190" s="10"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D191" s="10"/>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D192" s="11"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A9:I9">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+  <conditionalFormatting sqref="A9:I9 G189:I1048576">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>"Not Submitted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D230:D1048576 D1:D9">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:I143 G230:I1048576">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="G1:I134 H135:I143">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>"Not Submitted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B144:I186">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="B144:F186 H144:I186">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>"Not Submitted"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D144:D186">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D144:D186">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G135:G186">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Not Submitted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D189:D1048576 D1:D9">
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
